--- a/bots/crawl_ch/output/toilet_coop_2022-07-24.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-24.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -823,153 +823,153 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>6497242</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>4Rol</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Oecoplan Taschentuch Calendula Box</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1172,151 +1172,151 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>40ST</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.91/1Rol</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>40ST</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.91/1Rol</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-24 07:00:51</t>
+          <t>2022-07-24 20:58:22</t>
         </is>
       </c>
     </row>
